--- a/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,71</t>
+          <t>1,51; 5,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,59</t>
+          <t>0,46; 2,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,64</t>
+          <t>0,55; 3,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,27</t>
+          <t>0,82; 3,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,61</t>
+          <t>0,69; 3,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,41</t>
+          <t>1,75; 5,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,51</t>
+          <t>1,33; 3,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,57</t>
+          <t>0,89; 2,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,63</t>
+          <t>1,42; 3,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,3</t>
+          <t>1,12; 3,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,41</t>
+          <t>1,43; 4,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,33</t>
+          <t>0,5; 2,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,18</t>
+          <t>0,95; 3,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,74</t>
+          <t>0,79; 2,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,32</t>
+          <t>0,5; 2,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,76</t>
+          <t>1,24; 2,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,09</t>
+          <t>1,32; 3,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,96</t>
+          <t>0,66; 1,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,86</t>
+          <t>0,31; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,48</t>
+          <t>0,19; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,03</t>
+          <t>0,43; 1,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,2</t>
+          <t>1,56; 4,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,64</t>
+          <t>1,31; 3,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,27</t>
+          <t>0,14; 1,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,87</t>
+          <t>1,15; 2,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,19</t>
+          <t>0,85; 2,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,29</t>
+          <t>0,35; 1,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,01</t>
+          <t>1,05; 3,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,99</t>
+          <t>0,73; 3,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,26</t>
+          <t>0,8; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,61</t>
+          <t>1,23; 3,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,82</t>
+          <t>0,68; 2,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,04</t>
+          <t>1,19; 2,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,95</t>
+          <t>1,28; 2,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,63</t>
+          <t>0,5; 1,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,78</t>
+          <t>0,49; 2,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,03</t>
+          <t>0,22; 2,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,64</t>
+          <t>0,22; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,19</t>
+          <t>0,73; 3,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,58</t>
+          <t>0,24; 2,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,34</t>
+          <t>0,25; 2,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,53</t>
+          <t>0,76; 2,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,79</t>
+          <t>0,35; 1,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,38</t>
+          <t>0,36; 2,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,44</t>
+          <t>0,17; 1,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,01</t>
+          <t>0,15; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,29</t>
+          <t>0,14; 1,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,8</t>
+          <t>0,38; 1,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,3</t>
+          <t>0,13; 1,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,46</t>
+          <t>0,32; 1,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,3</t>
+          <t>0,32; 1,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,24</t>
+          <t>0,23; 1,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,21</t>
+          <t>1,27; 2,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,76</t>
+          <t>0,93; 1,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,3</t>
+          <t>0,65; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,17</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,08</t>
+          <t>1,19; 2,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,53</t>
+          <t>0,79; 1,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,07</t>
+          <t>1,38; 2,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,78</t>
+          <t>1,18; 1,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,34</t>
+          <t>0,78; 1,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,11</t>
+          <t>1,38; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,72</t>
+          <t>0,46; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,53</t>
+          <t>0,55; 3,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,12</t>
+          <t>0,36; 5,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,13</t>
+          <t>0,81; 3,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,69</t>
+          <t>0,88; 3,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,07</t>
+          <t>1,64; 4,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,42</t>
+          <t>0,09; 4,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,33</t>
+          <t>1,3; 3,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,57</t>
+          <t>0,82; 2,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,63</t>
+          <t>1,41; 3,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,43</t>
+          <t>0,66; 3,64</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,27</t>
+          <t>1,03; 3,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,09</t>
+          <t>1,44; 4,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,56</t>
+          <t>0,52; 2,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,02</t>
+          <t>0,72; 4,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,24</t>
+          <t>0,9; 3,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,78</t>
+          <t>0,67; 2,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,31</t>
+          <t>0,49; 2,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,74</t>
+          <t>1,33; 4,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,85</t>
+          <t>1,25; 2,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,0</t>
+          <t>1,42; 3,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,99</t>
+          <t>0,73; 1,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,94</t>
+          <t>1,38; 3,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,84</t>
+          <t>0,45; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,56</t>
+          <t>0,13; 1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,88</t>
+          <t>0,42; 2,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,77</t>
+          <t>0,93; 3,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,09</t>
+          <t>1,57; 4,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,58</t>
+          <t>1,3; 3,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,26</t>
+          <t>0,13; 1,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,23</t>
+          <t>1,11; 3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,73</t>
+          <t>1,14; 2,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,23</t>
+          <t>0,88; 2,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,28</t>
+          <t>0,35; 1,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,88</t>
+          <t>1,25; 3,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,93</t>
+          <t>1,08; 4,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,08</t>
+          <t>0,71; 2,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,45</t>
+          <t>0,89; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,01</t>
+          <t>0,67; 3,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,86</t>
+          <t>1,34; 3,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,9</t>
+          <t>0,77; 2,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,71</t>
+          <t>1,03; 2,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,99</t>
+          <t>1,12; 3,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,86</t>
+          <t>1,28; 2,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,65</t>
+          <t>0,49; 1,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,57</t>
+          <t>1,21; 2,56</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,91</t>
+          <t>0,5; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,05</t>
+          <t>0,22; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,62</t>
+          <t>0,22; 2,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,84</t>
+          <t>1,23; 3,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,32</t>
+          <t>0,74; 3,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,49</t>
+          <t>0,24; 2,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,54</t>
+          <t>0,24; 2,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,41</t>
+          <t>0,86; 2,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,47</t>
+          <t>0,77; 2,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,68</t>
+          <t>0,38; 1,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,8</t>
+          <t>0,36; 1,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,68</t>
+          <t>1,22; 2,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,28</t>
+          <t>0,36; 2,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,6</t>
+          <t>0,17; 1,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,85</t>
+          <t>0,17; 2,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,2</t>
+          <t>0,23; 1,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,35</t>
+          <t>0,14; 1,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,83</t>
+          <t>0,39; 1,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,17</t>
+          <t>0,13; 1,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,86</t>
+          <t>0,2; 0,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,43</t>
+          <t>0,33; 1,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,25</t>
+          <t>0,3; 1,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,18</t>
+          <t>0,27; 1,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,76</t>
+          <t>0,26; 0,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,24</t>
+          <t>1,27; 2,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,74</t>
+          <t>0,94; 1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,31</t>
+          <t>0,59; 1,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,33</t>
+          <t>1,24; 2,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,19</t>
+          <t>1,26; 2,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,09</t>
+          <t>1,18; 2,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,54</t>
+          <t>0,79; 1,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,89</t>
+          <t>1,12; 1,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,04</t>
+          <t>1,39; 2,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,78</t>
+          <t>1,14; 1,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,29</t>
+          <t>0,77; 1,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,97</t>
+          <t>1,29; 1,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,47</t>
+          <t>0,36; 4,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,99</t>
+          <t>0,11; 4,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,64</t>
+          <t>0,58; 3,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,81</t>
+          <t>0,73; 5,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,85</t>
+          <t>1,12; 4,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,89</t>
+          <t>1,29; 3,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,55</t>
+          <t>0,96; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,14</t>
+          <t>1,14; 3,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,0</t>
+          <t>1,27; 3,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,07</t>
+          <t>0,44; 2,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,74</t>
+          <t>1,0; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,56</t>
+          <t>0,84; 2,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,7</t>
+          <t>1,23; 3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,53</t>
+          <t>0,86; 2,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,79</t>
+          <t>1,23; 2,8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,54%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,27</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,55</t>
+          <t>0,31; 2,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,08</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,11</t>
+          <t>0,14; 1,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,28</t>
+          <t>0,25; 2,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,78</t>
+          <t>0,28; 2,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,07</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,88</t>
+          <t>0,1; 1,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,43</t>
+          <t>0,28; 2,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,2</t>
+          <t>0,43; 2,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,18</t>
+          <t>0,15; 1,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,79</t>
+          <t>0,23; 1,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,39; 3,5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,88</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 1,45</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,56</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,04</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,6</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,81</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 1,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,14</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 1,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 0,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,27; 2,22</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,94; 1,76</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,59; 1,29</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 2,26</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 2,18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,26; 2,14</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,18; 2,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,79; 1,49</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 1,98</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 1,93</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,39; 2,05</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,14; 1,75</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,77; 1,29</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 1,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 1,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,94</t>
+          <t>1,36; 4,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,78</t>
+          <t>0,47; 2,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,7</t>
+          <t>0,53; 3,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,85</t>
+          <t>0,36; 4,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,14</t>
+          <t>0,81; 3,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,75</t>
+          <t>0,9; 3,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,94</t>
+          <t>1,61; 5,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,83</t>
+          <t>0,1; 4,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,45</t>
+          <t>1,33; 3,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,65</t>
+          <t>0,88; 2,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,71</t>
+          <t>1,31; 3,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,5</t>
+          <t>0,61; 3,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,25</t>
+          <t>1,06; 3,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,34</t>
+          <t>1,66; 4,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,41</t>
+          <t>0,5; 2,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,39</t>
+          <t>0,71; 5,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,17</t>
+          <t>0,95; 3,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,72</t>
+          <t>0,77; 2,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,29</t>
+          <t>0,5; 2,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,45</t>
+          <t>1,09; 4,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,81</t>
+          <t>1,27; 2,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,19</t>
+          <t>1,4; 3,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,87</t>
+          <t>0,66; 1,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,79</t>
+          <t>1,31; 3,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,95</t>
+          <t>0,32; 1,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,41</t>
+          <t>0,19; 1,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,04</t>
+          <t>0,41; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,56</t>
+          <t>1,02; 3,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,18</t>
+          <t>1,65; 4,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,78</t>
+          <t>1,25; 3,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,24</t>
+          <t>0,13; 1,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,22</t>
+          <t>1,15; 3,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,65</t>
+          <t>1,11; 2,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,22</t>
+          <t>0,81; 2,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,25</t>
+          <t>0,34; 1,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,04</t>
+          <t>1,37; 2,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,17</t>
+          <t>1,09; 4,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,88</t>
+          <t>0,74; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,52</t>
+          <t>0,44; 2,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,09</t>
+          <t>0,77; 3,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,64</t>
+          <t>1,22; 3,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,86</t>
+          <t>0,75; 2,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,67</t>
+          <t>1,05; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,01</t>
+          <t>1,21; 2,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,92</t>
+          <t>1,2; 2,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,64</t>
+          <t>0,48; 1,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,29</t>
+          <t>0,86; 2,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,86</t>
+          <t>0,49; 3,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,21</t>
+          <t>0,22; 2,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,53</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,72</t>
+          <t>1,23; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,39</t>
+          <t>0,72; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,37</t>
+          <t>0,24; 2,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,21</t>
+          <t>0,24; 2,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,54</t>
+          <t>0,82; 2,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,52</t>
+          <t>0,87; 2,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,62</t>
+          <t>0,38; 1,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,91</t>
+          <t>0,36; 1,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,8</t>
+          <t>1,19; 2,8</t>
         </is>
       </c>
     </row>
@@ -1424,32 +1425,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,61</t>
+          <t>0,3; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,7</t>
+          <t>0,18; 1,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,39</t>
+          <t>0,25; 1,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,74</t>
+          <t>0,29; 2,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1460,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,21</t>
+          <t>0,1; 1,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,02</t>
+          <t>0,29; 1,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,05</t>
+          <t>0,44; 2,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,75</t>
+          <t>0,15; 1,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,08</t>
+          <t>0,17; 1,02</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,5</t>
+          <t>0,39; 3,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1575,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,45</t>
+          <t>0,14; 1,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,81</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,78</t>
+          <t>0,19; 1,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,38</t>
+          <t>0,12; 1,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,75</t>
+          <t>0,11; 0,76</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,22</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,76</t>
+          <t>0,96; 1,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,29</t>
+          <t>0,61; 1,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,18</t>
+          <t>1,12; 2,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,14</t>
+          <t>1,25; 2,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,06</t>
+          <t>1,21; 2,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,49</t>
+          <t>0,81; 1,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,93</t>
+          <t>1,08; 1,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,05</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,75</t>
+          <t>1,19; 1,76</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,29</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,87</t>
+          <t>1,2; 1,89</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han sufrido a lo largo de este ultimo año alguna quemadura solar con ampollas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13343</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5870</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6588</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7725</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7862</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12224</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21068</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13732</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18812</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10693</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6720; 23336</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2127; 12293</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2214; 14900</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1429; 18961</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3791; 15504</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3827; 16498</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6340; 21136</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>315; 15328</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12713; 32489</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7728; 23108</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10607; 30264</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4322; 27455</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14302</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18407</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7057</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9613</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11508</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8845</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6517</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12019</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25810</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27252</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13573</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21632</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7773; 24093</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11359; 29014</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2951; 14172</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2987; 23505</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5953; 19598</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4666; 15771</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2801; 13068</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5582; 22897</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17233; 37545</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18023; 39061</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7595; 22596</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12237; 36623</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5863</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6598</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10860</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17972</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15367</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10884</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23835</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19321</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9478</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21744</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2024; 11876</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1280; 9870</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2742; 13453</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5441; 19178</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11331; 28662</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8796; 26492</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>878; 7628</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6241; 18179</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14771; 35635</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11141; 30877</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4472; 16087</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14750; 32130</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11557</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9643</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2088</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12186</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8446</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13737</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9967</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12295</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20003</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23379</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12055</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24481</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5653; 20768</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4496; 17444</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7440</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3859; 23572</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3931; 15579</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7480; 23658</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4849; 19126</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7488; 18968</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12485; 30888</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14696; 34558</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6135; 20560</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13701; 36289</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4955</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12676</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6909</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4653</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8096</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11864</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8688</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20772</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1885; 11958</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>932; 8861</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10653</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6900; 21600</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2917; 13876</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1069; 11120</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1166; 11516</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4465; 12999</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6866; 20614</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3283; 14802</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3457; 17472</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13143; 31037</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2763</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5046</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6745</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7683</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>935; 7876</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8478</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>666; 6286</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>851; 6751</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1009; 9695</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7071</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>593; 7647</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1872; 11892</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2861; 13568</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1033; 12067</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1652; 9941</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1674</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>824; 7424</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2153</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5131</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>391; 4315</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5346</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7599</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5533</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3574</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1010; 9995</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7722</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>786; 8798</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>775; 5367</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>55141</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>44012</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>30803</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>55289</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>56351</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>56260</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>39523</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>51696</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>111492</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>70326</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>106985</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>41158; 71594</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>32497; 59551</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>20462; 44332</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>38688; 74710</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>42023; 71951</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>42517; 72634</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>28480; 54585</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>39338; 67432</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>92764; 135990</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>82646; 121592</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>54591; 89984</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>85001; 134634</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>